--- a/Code/Results/Cases/Case_8_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6963216025779388</v>
+        <v>0.6771595054622992</v>
       </c>
       <c r="C2">
-        <v>0.2861127181079155</v>
+        <v>0.3637995229593685</v>
       </c>
       <c r="D2">
-        <v>0.008553560098921054</v>
+        <v>0.02683342898402685</v>
       </c>
       <c r="E2">
-        <v>0.0444017188425363</v>
+        <v>0.06218257041013686</v>
       </c>
       <c r="F2">
-        <v>3.099420679647835</v>
+        <v>2.176181941037783</v>
       </c>
       <c r="G2">
-        <v>0.0008535966096227881</v>
+        <v>0.06018749160676506</v>
       </c>
       <c r="H2">
-        <v>0.0240597924925996</v>
+        <v>0.0133661228119023</v>
       </c>
       <c r="I2">
-        <v>0.03149472893156036</v>
+        <v>0.01360789475533331</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.81702250384599</v>
+        <v>1.131015909030666</v>
       </c>
       <c r="L2">
-        <v>0.1198761992788278</v>
+        <v>0.452591677168769</v>
       </c>
       <c r="M2">
-        <v>0.9747947213069779</v>
+        <v>0.3949778750754689</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1186462137355946</v>
       </c>
       <c r="O2">
-        <v>0.2824133203928199</v>
+        <v>1.031060347883567</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3110963166145311</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6053265713616724</v>
+        <v>0.5907248869228283</v>
       </c>
       <c r="C3">
-        <v>0.2517377033610728</v>
+        <v>0.316201860047471</v>
       </c>
       <c r="D3">
-        <v>0.007940989400612608</v>
+        <v>0.02293088233106033</v>
       </c>
       <c r="E3">
-        <v>0.03857610384776322</v>
+        <v>0.05508231332202485</v>
       </c>
       <c r="F3">
-        <v>2.858678088996697</v>
+        <v>2.030632460764423</v>
       </c>
       <c r="G3">
-        <v>0.0008581894361332151</v>
+        <v>0.06977343459398844</v>
       </c>
       <c r="H3">
-        <v>0.03005584227220126</v>
+        <v>0.01711383027211621</v>
       </c>
       <c r="I3">
-        <v>0.03836541210761713</v>
+        <v>0.01696572460606571</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.688922335512871</v>
+        <v>1.071680036957581</v>
       </c>
       <c r="L3">
-        <v>0.1049193144070415</v>
+        <v>0.4401135689659768</v>
       </c>
       <c r="M3">
-        <v>0.8489364580968584</v>
+        <v>0.3647044714085013</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1062433025433336</v>
       </c>
       <c r="O3">
-        <v>0.2464972445299018</v>
+        <v>0.8960288805182302</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2710322244534922</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5495312158524825</v>
+        <v>0.5375011345202836</v>
       </c>
       <c r="C4">
-        <v>0.2310994309379879</v>
+        <v>0.2873807051815618</v>
       </c>
       <c r="D4">
-        <v>0.007585218484003065</v>
+        <v>0.02061620850235357</v>
       </c>
       <c r="E4">
-        <v>0.03504239433680034</v>
+        <v>0.05075026088848844</v>
       </c>
       <c r="F4">
-        <v>2.710117465551903</v>
+        <v>1.940175539838876</v>
       </c>
       <c r="G4">
-        <v>0.0008611038228714826</v>
+        <v>0.07621913012898851</v>
       </c>
       <c r="H4">
-        <v>0.03420635590313337</v>
+        <v>0.01973743658024096</v>
       </c>
       <c r="I4">
-        <v>0.04310730638157168</v>
+        <v>0.01933481610628673</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.609388097379636</v>
+        <v>1.034310960445112</v>
       </c>
       <c r="L4">
-        <v>0.09575273842325771</v>
+        <v>0.4317743182807376</v>
       </c>
       <c r="M4">
-        <v>0.772187790894634</v>
+        <v>0.3466281874541792</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09858663095867826</v>
       </c>
       <c r="O4">
-        <v>0.2245580814656662</v>
+        <v>0.813323176624948</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.246525661446281</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5265879700364167</v>
+        <v>0.5155859727792347</v>
       </c>
       <c r="C5">
-        <v>0.2231860829553085</v>
+        <v>0.276085963950635</v>
       </c>
       <c r="D5">
-        <v>0.007507147238758449</v>
+        <v>0.01981576727109768</v>
       </c>
       <c r="E5">
-        <v>0.03365543114841607</v>
+        <v>0.04903109741477252</v>
       </c>
       <c r="F5">
-        <v>2.644876922502903</v>
+        <v>1.899935187720786</v>
       </c>
       <c r="G5">
-        <v>0.0008623260588490658</v>
+        <v>0.07900416861757265</v>
       </c>
       <c r="H5">
-        <v>0.03602461343784524</v>
+        <v>0.02089199723786728</v>
       </c>
       <c r="I5">
-        <v>0.04528273609666211</v>
+        <v>0.02048593155206557</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.57339522585626</v>
+        <v>1.016711341794348</v>
       </c>
       <c r="L5">
-        <v>0.0919313763728411</v>
+        <v>0.4273254667452022</v>
       </c>
       <c r="M5">
-        <v>0.7412353900228368</v>
+        <v>0.3386736772499788</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09538476249506544</v>
       </c>
       <c r="O5">
-        <v>0.2157707564741145</v>
+        <v>0.7798274872995137</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2366703450063774</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5225123442864117</v>
+        <v>0.5117190320422651</v>
       </c>
       <c r="C6">
-        <v>0.2223542670490701</v>
+        <v>0.2746523743151954</v>
       </c>
       <c r="D6">
-        <v>0.007571395173895823</v>
+        <v>0.01983532896350226</v>
       </c>
       <c r="E6">
-        <v>0.03347904027384807</v>
+        <v>0.04879521243553953</v>
       </c>
       <c r="F6">
-        <v>2.628536986070273</v>
+        <v>1.88945248725274</v>
       </c>
       <c r="G6">
-        <v>0.0008625432261578664</v>
+        <v>0.07950193099191916</v>
       </c>
       <c r="H6">
-        <v>0.03634972693314609</v>
+        <v>0.02109727502925096</v>
       </c>
       <c r="I6">
-        <v>0.04580101611321385</v>
+        <v>0.02082621163647325</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.563307982143996</v>
+        <v>1.011168804145939</v>
       </c>
       <c r="L6">
-        <v>0.09118998798660272</v>
+        <v>0.4255034481111863</v>
       </c>
       <c r="M6">
-        <v>0.736355289740402</v>
+        <v>0.3364854333769145</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09476684136831182</v>
       </c>
       <c r="O6">
-        <v>0.2144703875257115</v>
+        <v>0.7744715525697643</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2351709980211574</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.54848920364131</v>
+        <v>0.5375573865012484</v>
       </c>
       <c r="C7">
-        <v>0.2322934719747138</v>
+        <v>0.2855339308589464</v>
       </c>
       <c r="D7">
-        <v>0.007793888139550731</v>
+        <v>0.02180905545485246</v>
       </c>
       <c r="E7">
-        <v>0.03516973775357002</v>
+        <v>0.05115114128208731</v>
       </c>
       <c r="F7">
-        <v>2.694211371428182</v>
+        <v>1.910870898840201</v>
       </c>
       <c r="G7">
-        <v>0.000861154632625488</v>
+        <v>0.07704497194089566</v>
       </c>
       <c r="H7">
-        <v>0.03427354407856775</v>
+        <v>0.01982298331669274</v>
       </c>
       <c r="I7">
-        <v>0.04352369839742476</v>
+        <v>0.01978118873361367</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.597694358570621</v>
+        <v>1.01613282047753</v>
       </c>
       <c r="L7">
-        <v>0.09540763395993679</v>
+        <v>0.4244217664332623</v>
       </c>
       <c r="M7">
-        <v>0.7724585845041645</v>
+        <v>0.3403998503665093</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.0979615090349597</v>
       </c>
       <c r="O7">
-        <v>0.2248699610023657</v>
+        <v>0.8116574614480783</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2469110026791732</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6639346450393475</v>
+        <v>0.6498040442609749</v>
       </c>
       <c r="C8">
-        <v>0.2758887821966027</v>
+        <v>0.3391942409472222</v>
       </c>
       <c r="D8">
-        <v>0.008618684456063619</v>
+        <v>0.02876181620790419</v>
       </c>
       <c r="E8">
-        <v>0.0425781202712443</v>
+        <v>0.06088565867582574</v>
       </c>
       <c r="F8">
-        <v>2.996604717296037</v>
+        <v>2.05200345970249</v>
       </c>
       <c r="G8">
-        <v>0.0008552047482290905</v>
+        <v>0.06636336314637781</v>
       </c>
       <c r="H8">
-        <v>0.02607562416419107</v>
+        <v>0.0147438143957746</v>
       </c>
       <c r="I8">
-        <v>0.03421064025736431</v>
+        <v>0.01530580657639824</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.758145474940491</v>
+        <v>1.066034600979087</v>
       </c>
       <c r="L8">
-        <v>0.1143178283500461</v>
+        <v>0.4309570158940232</v>
       </c>
       <c r="M8">
-        <v>0.9321803192370339</v>
+        <v>0.3684624938631273</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1129042749835065</v>
       </c>
       <c r="O8">
-        <v>0.2705760501720818</v>
+        <v>0.9791992612100842</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.298238929899945</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8926569222223293</v>
+        <v>0.8664784258368741</v>
       </c>
       <c r="C9">
-        <v>0.3631825835750249</v>
+        <v>0.4562191926258095</v>
       </c>
       <c r="D9">
-        <v>0.01002973012501229</v>
+        <v>0.03936457546313932</v>
       </c>
       <c r="E9">
-        <v>0.05725040815526938</v>
+        <v>0.07893473535449758</v>
       </c>
       <c r="F9">
-        <v>3.611630373108625</v>
+        <v>2.40505386016784</v>
       </c>
       <c r="G9">
-        <v>0.0008442073193168185</v>
+        <v>0.04591586439332751</v>
       </c>
       <c r="H9">
-        <v>0.01387296981621661</v>
+        <v>0.007272579518401323</v>
       </c>
       <c r="I9">
-        <v>0.01975842432814279</v>
+        <v>0.008318664180338331</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.086302504173716</v>
+        <v>1.207885906341531</v>
       </c>
       <c r="L9">
-        <v>0.15220938184072</v>
+        <v>0.4591072925272641</v>
       </c>
       <c r="M9">
-        <v>1.249169128323956</v>
+        <v>0.445304218115794</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.143617359215817</v>
       </c>
       <c r="O9">
-        <v>0.3605237030202915</v>
+        <v>1.31525339461308</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3985729074963515</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.065267915467473</v>
+        <v>1.035370685137906</v>
       </c>
       <c r="C10">
-        <v>0.4268901077025191</v>
+        <v>0.5215614006816054</v>
       </c>
       <c r="D10">
-        <v>0.01105334236990174</v>
+        <v>0.0522187055475456</v>
       </c>
       <c r="E10">
-        <v>0.06468417632164858</v>
+        <v>0.08978807991746507</v>
       </c>
       <c r="F10">
-        <v>3.973205247208114</v>
+        <v>2.500309588650254</v>
       </c>
       <c r="G10">
-        <v>0.0008367498611825069</v>
+        <v>0.04306048308046684</v>
       </c>
       <c r="H10">
-        <v>0.008114178515896686</v>
+        <v>0.004100132547670832</v>
       </c>
       <c r="I10">
-        <v>0.01251016201732824</v>
+        <v>0.005318468266509946</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.270430326767766</v>
+        <v>1.219708522738145</v>
       </c>
       <c r="L10">
-        <v>0.170063089247364</v>
+        <v>0.4453389605899218</v>
       </c>
       <c r="M10">
-        <v>1.485741290561265</v>
+        <v>0.4696480219304036</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1548292592504055</v>
       </c>
       <c r="O10">
-        <v>0.4205332914473274</v>
+        <v>1.551707056177264</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4659118735978538</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.176808737488813</v>
+        <v>1.162851590814199</v>
       </c>
       <c r="C11">
-        <v>0.4217453904801971</v>
+        <v>0.4707712187900199</v>
       </c>
       <c r="D11">
-        <v>0.009906063351358796</v>
+        <v>0.0599034620039518</v>
       </c>
       <c r="E11">
-        <v>0.04001794322049435</v>
+        <v>0.06273559066709922</v>
       </c>
       <c r="F11">
-        <v>3.437953858543011</v>
+        <v>1.959884509875309</v>
       </c>
       <c r="G11">
-        <v>0.0008350467419358084</v>
+        <v>0.07697670400496293</v>
       </c>
       <c r="H11">
-        <v>0.0266689505167399</v>
+        <v>0.02292931433101586</v>
       </c>
       <c r="I11">
-        <v>0.0116998245589004</v>
+        <v>0.005557980657285633</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.940255485770166</v>
+        <v>0.9280365858955903</v>
       </c>
       <c r="L11">
-        <v>0.1028075628739273</v>
+        <v>0.3359250736912216</v>
       </c>
       <c r="M11">
-        <v>1.587685374472642</v>
+        <v>0.361947953839902</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09150851945354788</v>
       </c>
       <c r="O11">
-        <v>0.3869660885524482</v>
+        <v>1.626756735021615</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4291945181238646</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.237424308493928</v>
+        <v>1.234835167366583</v>
       </c>
       <c r="C12">
-        <v>0.4015968276465287</v>
+        <v>0.4246785828661359</v>
       </c>
       <c r="D12">
-        <v>0.008535370321084201</v>
+        <v>0.05916542717464779</v>
       </c>
       <c r="E12">
-        <v>0.02338430485574783</v>
+        <v>0.04192058773060481</v>
       </c>
       <c r="F12">
-        <v>2.968166548579575</v>
+        <v>1.602557999498785</v>
       </c>
       <c r="G12">
-        <v>0.0008349787105161085</v>
+        <v>0.1021233398491006</v>
       </c>
       <c r="H12">
-        <v>0.06594193540465199</v>
+        <v>0.06205439504839205</v>
       </c>
       <c r="I12">
-        <v>0.0116669345331335</v>
+        <v>0.00557690657702814</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.66398780702211</v>
+        <v>0.7507516612208534</v>
       </c>
       <c r="L12">
-        <v>0.06098686983618506</v>
+        <v>0.2728959593890892</v>
       </c>
       <c r="M12">
-        <v>1.622255694835019</v>
+        <v>0.292779127985348</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05577389417397072</v>
       </c>
       <c r="O12">
-        <v>0.3467969576049938</v>
+        <v>1.645641224913902</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3845936039691225</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.260525222965725</v>
+        <v>1.263011508079899</v>
       </c>
       <c r="C13">
-        <v>0.3708844291468267</v>
+        <v>0.386396034770712</v>
       </c>
       <c r="D13">
-        <v>0.007211375289084998</v>
+        <v>0.05030716246447753</v>
       </c>
       <c r="E13">
-        <v>0.01223542898541652</v>
+        <v>0.02541412120949182</v>
       </c>
       <c r="F13">
-        <v>2.499684539098297</v>
+        <v>1.357697364432454</v>
       </c>
       <c r="G13">
-        <v>0.0008362138468993724</v>
+        <v>0.0976150646520928</v>
       </c>
       <c r="H13">
-        <v>0.1229298963130816</v>
+        <v>0.1184916818156836</v>
       </c>
       <c r="I13">
-        <v>0.012692136499032</v>
+        <v>0.005921836335478936</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.396405179173499</v>
+        <v>0.6410005935694016</v>
       </c>
       <c r="L13">
-        <v>0.03593218694123834</v>
+        <v>0.2359574126416462</v>
       </c>
       <c r="M13">
-        <v>1.607651279304577</v>
+        <v>0.2474120304333134</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.03786430248218586</v>
       </c>
       <c r="O13">
-        <v>0.3002584050920092</v>
+        <v>1.628010151926759</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3320496689063859</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.259481762638899</v>
+        <v>1.262585052835362</v>
       </c>
       <c r="C14">
-        <v>0.3452288501383123</v>
+        <v>0.3625199188439296</v>
       </c>
       <c r="D14">
-        <v>0.006364910495904041</v>
+        <v>0.04135800781973842</v>
       </c>
       <c r="E14">
-        <v>0.007777293804354546</v>
+        <v>0.01733607695415973</v>
       </c>
       <c r="F14">
-        <v>2.176263668055995</v>
+        <v>1.225606441950987</v>
       </c>
       <c r="G14">
-        <v>0.0008376632582422753</v>
+        <v>0.08220716235225822</v>
       </c>
       <c r="H14">
-        <v>0.1734565071809584</v>
+        <v>0.1684346972320725</v>
       </c>
       <c r="I14">
-        <v>0.01404012504962626</v>
+        <v>0.00644615131935744</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.215084980700567</v>
+        <v>0.5870757790834489</v>
       </c>
       <c r="L14">
-        <v>0.02849849558552897</v>
+        <v>0.2187036766879658</v>
       </c>
       <c r="M14">
-        <v>1.575510573477118</v>
+        <v>0.2239100517067385</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0350327782788229</v>
       </c>
       <c r="O14">
-        <v>0.2654912308036081</v>
+        <v>1.599100371544466</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2925001369665239</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.250599887708148</v>
+        <v>1.252619671581186</v>
       </c>
       <c r="C15">
-        <v>0.3372814038810361</v>
+        <v>0.3577924553933656</v>
       </c>
       <c r="D15">
-        <v>0.006218127964558562</v>
+        <v>0.0381410443077641</v>
       </c>
       <c r="E15">
-        <v>0.007096034918095073</v>
+        <v>0.01580098190080204</v>
       </c>
       <c r="F15">
-        <v>2.090007014067695</v>
+        <v>1.204003550096701</v>
       </c>
       <c r="G15">
-        <v>0.0008383239412660554</v>
+        <v>0.07427850143713499</v>
       </c>
       <c r="H15">
-        <v>0.1864870400407028</v>
+        <v>0.1812025910568167</v>
       </c>
       <c r="I15">
-        <v>0.01478685584002193</v>
+        <v>0.006822409207453362</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.167251640767994</v>
+        <v>0.5802315519049941</v>
       </c>
       <c r="L15">
-        <v>0.02790050797895605</v>
+        <v>0.2169533199639062</v>
       </c>
       <c r="M15">
-        <v>1.557544683460378</v>
+        <v>0.2203134198818333</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03550257501323451</v>
       </c>
       <c r="O15">
-        <v>0.2556994992910617</v>
+        <v>1.584145788468277</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.281226233688102</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.169848120260866</v>
+        <v>1.161760411650505</v>
       </c>
       <c r="C16">
-        <v>0.3173888113300904</v>
+        <v>0.3613890495458634</v>
       </c>
       <c r="D16">
-        <v>0.006123229233210736</v>
+        <v>0.02810042875129426</v>
       </c>
       <c r="E16">
-        <v>0.006645624504214132</v>
+        <v>0.01491831503843244</v>
       </c>
       <c r="F16">
-        <v>2.033454413144511</v>
+        <v>1.306442386940404</v>
       </c>
       <c r="G16">
-        <v>0.000841259804442709</v>
+        <v>0.04811279597599061</v>
       </c>
       <c r="H16">
-        <v>0.1762352620414021</v>
+        <v>0.1697330756868354</v>
       </c>
       <c r="I16">
-        <v>0.01777207146188431</v>
+        <v>0.008027445368419706</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.143249100417258</v>
+        <v>0.6438625337130333</v>
       </c>
       <c r="L16">
-        <v>0.02643950398907524</v>
+        <v>0.2423918711678006</v>
       </c>
       <c r="M16">
-        <v>1.458804758746112</v>
+        <v>0.2413798387067061</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03466975392212213</v>
       </c>
       <c r="O16">
-        <v>0.2410896378904255</v>
+        <v>1.503610986049836</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2637725087182723</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.108653563478583</v>
+        <v>1.094642853754607</v>
       </c>
       <c r="C17">
-        <v>0.3157712655726073</v>
+        <v>0.3737519209379627</v>
       </c>
       <c r="D17">
-        <v>0.006517717535519552</v>
+        <v>0.02593590494464593</v>
       </c>
       <c r="E17">
-        <v>0.008077542272640237</v>
+        <v>0.01738435960884921</v>
       </c>
       <c r="F17">
-        <v>2.156139145940699</v>
+        <v>1.447924396572759</v>
       </c>
       <c r="G17">
-        <v>0.0008427570473504151</v>
+        <v>0.0433209735523441</v>
       </c>
       <c r="H17">
-        <v>0.1397615019810274</v>
+        <v>0.1326351466205296</v>
       </c>
       <c r="I17">
-        <v>0.01941646901232907</v>
+        <v>0.008737004037082663</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.217431208447557</v>
+        <v>0.7192011178151034</v>
       </c>
       <c r="L17">
-        <v>0.02741169481626926</v>
+        <v>0.2714515398362529</v>
       </c>
       <c r="M17">
-        <v>1.400387205333431</v>
+        <v>0.2681501074552628</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03455186029857238</v>
       </c>
       <c r="O17">
-        <v>0.2479647879881561</v>
+        <v>1.454291935687564</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.271073342398914</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.058433750276265</v>
+        <v>1.038863380104743</v>
       </c>
       <c r="C18">
-        <v>0.3286130890789707</v>
+        <v>0.4001873452989173</v>
       </c>
       <c r="D18">
-        <v>0.007271043727989479</v>
+        <v>0.02776689359155426</v>
       </c>
       <c r="E18">
-        <v>0.01418269728602173</v>
+        <v>0.02582524482271253</v>
       </c>
       <c r="F18">
-        <v>2.475171996287557</v>
+        <v>1.683966654815748</v>
       </c>
       <c r="G18">
-        <v>0.000843080215667546</v>
+        <v>0.04200727029079143</v>
       </c>
       <c r="H18">
-        <v>0.086949043006463</v>
+        <v>0.07978272710715117</v>
       </c>
       <c r="I18">
-        <v>0.01948931671251408</v>
+        <v>0.008585403815352777</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.403861255695247</v>
+        <v>0.8379033798543318</v>
       </c>
       <c r="L18">
-        <v>0.03955209350519162</v>
+        <v>0.3155769772888206</v>
       </c>
       <c r="M18">
-        <v>1.368955416036329</v>
+        <v>0.3125911248307602</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0438180822501586</v>
       </c>
       <c r="O18">
-        <v>0.2747476890835188</v>
+        <v>1.429827793564272</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3010623847030303</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.019854382363377</v>
+        <v>0.9947844673689303</v>
       </c>
       <c r="C19">
-        <v>0.3547958013893151</v>
+        <v>0.4412491997067036</v>
       </c>
       <c r="D19">
-        <v>0.008731034282313033</v>
+        <v>0.03299051114497331</v>
       </c>
       <c r="E19">
-        <v>0.02815376252847201</v>
+        <v>0.04339480559260345</v>
       </c>
       <c r="F19">
-        <v>2.937965913398457</v>
+        <v>1.993185643059348</v>
       </c>
       <c r="G19">
-        <v>0.000842380812710819</v>
+        <v>0.04059103281101706</v>
       </c>
       <c r="H19">
-        <v>0.04032922389218641</v>
+        <v>0.03368940813304278</v>
       </c>
       <c r="I19">
-        <v>0.01884038631310059</v>
+        <v>0.008414172203785597</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.671380077577965</v>
+        <v>0.989171259488721</v>
       </c>
       <c r="L19">
-        <v>0.0730562856993302</v>
+        <v>0.3707252342104823</v>
       </c>
       <c r="M19">
-        <v>1.362683500628862</v>
+        <v>0.3705819151874152</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07256077780168368</v>
       </c>
       <c r="O19">
-        <v>0.3180921539583466</v>
+        <v>1.4298739744182</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3496932020532313</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.017530643182084</v>
+        <v>0.9855866436708141</v>
       </c>
       <c r="C20">
-        <v>0.4138915242446046</v>
+        <v>0.5184915295496637</v>
       </c>
       <c r="D20">
-        <v>0.01146689765373665</v>
+        <v>0.04695645631585421</v>
       </c>
       <c r="E20">
-        <v>0.06300817531060687</v>
+        <v>0.08608785632519655</v>
       </c>
       <c r="F20">
-        <v>3.828110842366158</v>
+        <v>2.506287256943281</v>
       </c>
       <c r="G20">
-        <v>0.0008387850357526457</v>
+        <v>0.03807117910426516</v>
       </c>
       <c r="H20">
-        <v>0.009507259123233691</v>
+        <v>0.004770641913149021</v>
       </c>
       <c r="I20">
-        <v>0.01522379425872877</v>
+        <v>0.006981549656919661</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.185409744204492</v>
+        <v>1.231545184636943</v>
       </c>
       <c r="L20">
-        <v>0.1639672182998879</v>
+        <v>0.4541926166607624</v>
       </c>
       <c r="M20">
-        <v>1.425327494061634</v>
+        <v>0.4690297100916538</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1520219597102184</v>
       </c>
       <c r="O20">
-        <v>0.4057737832662838</v>
+        <v>1.497932908930864</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4485170157786627</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.145183679116343</v>
+        <v>1.128009727370227</v>
       </c>
       <c r="C21">
-        <v>0.4696810878526776</v>
+        <v>0.5223991219153561</v>
       </c>
       <c r="D21">
-        <v>0.01254256467030501</v>
+        <v>0.07794410844296351</v>
       </c>
       <c r="E21">
-        <v>0.07458605764498571</v>
+        <v>0.1074980994568833</v>
       </c>
       <c r="F21">
-        <v>4.24064605480055</v>
+        <v>2.33924096310362</v>
       </c>
       <c r="G21">
-        <v>0.0008328640152822078</v>
+        <v>0.09630373766959366</v>
       </c>
       <c r="H21">
-        <v>0.005274301043795226</v>
+        <v>0.002635692805726064</v>
       </c>
       <c r="I21">
-        <v>0.01019264953051291</v>
+        <v>0.005244829311190635</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.406945514000569</v>
+        <v>1.100176531658249</v>
       </c>
       <c r="L21">
-        <v>0.1937755794320992</v>
+        <v>0.3951403397605446</v>
       </c>
       <c r="M21">
-        <v>1.60942870954969</v>
+        <v>0.4318574881087898</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1682033647271695</v>
       </c>
       <c r="O21">
-        <v>0.4631164450181018</v>
+        <v>1.646187696075486</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5155794955291455</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.231994892574932</v>
+        <v>1.226611919142414</v>
       </c>
       <c r="C22">
-        <v>0.5030435277592176</v>
+        <v>0.517139285670055</v>
       </c>
       <c r="D22">
-        <v>0.01284661612487525</v>
+        <v>0.101518522690597</v>
       </c>
       <c r="E22">
-        <v>0.08012960889509557</v>
+        <v>0.1199802352056416</v>
       </c>
       <c r="F22">
-        <v>4.489100076557236</v>
+        <v>2.202224330101686</v>
       </c>
       <c r="G22">
-        <v>0.0008291200581055247</v>
+        <v>0.1828305076397712</v>
       </c>
       <c r="H22">
-        <v>0.003333672757120265</v>
+        <v>0.001689417128550419</v>
       </c>
       <c r="I22">
-        <v>0.007289086270438894</v>
+        <v>0.0039655140959729</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.541795912154114</v>
+        <v>1.004935219698567</v>
       </c>
       <c r="L22">
-        <v>0.2086351355327736</v>
+        <v>0.3551203775558918</v>
       </c>
       <c r="M22">
-        <v>1.729657263212971</v>
+        <v>0.4024108690046475</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1739730066104102</v>
       </c>
       <c r="O22">
-        <v>0.4966137243731481</v>
+        <v>1.738653813072176</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5552698946058356</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.186567632414352</v>
+        <v>1.171886331497944</v>
       </c>
       <c r="C23">
-        <v>0.4835855739067085</v>
+        <v>0.5260268598845528</v>
       </c>
       <c r="D23">
-        <v>0.01241013400961322</v>
+        <v>0.08486574391660184</v>
       </c>
       <c r="E23">
-        <v>0.07698325630798308</v>
+        <v>0.112198235629517</v>
       </c>
       <c r="F23">
-        <v>4.374381505399668</v>
+        <v>2.327584669589214</v>
       </c>
       <c r="G23">
-        <v>0.0008310773007679652</v>
+        <v>0.1179997481964747</v>
       </c>
       <c r="H23">
-        <v>0.004295027689524167</v>
+        <v>0.002134345291670892</v>
       </c>
       <c r="I23">
-        <v>0.008406017677906163</v>
+        <v>0.004185235181100033</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.483210593253233</v>
+        <v>1.085308976174048</v>
       </c>
       <c r="L23">
-        <v>0.2010674696077359</v>
+        <v>0.3864544776439516</v>
       </c>
       <c r="M23">
-        <v>1.664606924273102</v>
+        <v>0.4302323876337866</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1720581384245463</v>
       </c>
       <c r="O23">
-        <v>0.4781913550797441</v>
+        <v>1.693670201019671</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5332155027818288</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.013896988404184</v>
+        <v>0.9810698375747506</v>
       </c>
       <c r="C24">
-        <v>0.413942992530167</v>
+        <v>0.5207647674024543</v>
       </c>
       <c r="D24">
-        <v>0.01123525237777301</v>
+        <v>0.04657094604606016</v>
       </c>
       <c r="E24">
-        <v>0.06553789167536905</v>
+        <v>0.08908625621534227</v>
       </c>
       <c r="F24">
-        <v>3.912637207157417</v>
+        <v>2.564374740129836</v>
       </c>
       <c r="G24">
-        <v>0.0008386749937310306</v>
+        <v>0.03769713446619605</v>
       </c>
       <c r="H24">
-        <v>0.009170576287098969</v>
+        <v>0.004515881161323176</v>
       </c>
       <c r="I24">
-        <v>0.01454510567966238</v>
+        <v>0.006291107885571634</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.239785603330134</v>
+        <v>1.264101964770603</v>
       </c>
       <c r="L24">
-        <v>0.1720933838437091</v>
+        <v>0.4661004353955747</v>
       </c>
       <c r="M24">
-        <v>1.421813841645672</v>
+        <v>0.4814744642416571</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1593476932833937</v>
       </c>
       <c r="O24">
-        <v>0.4097739162089482</v>
+        <v>1.495465232089288</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4532085713501885</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8292247331215776</v>
+        <v>0.8053876503010144</v>
       </c>
       <c r="C25">
-        <v>0.3414462865275993</v>
+        <v>0.4305562521144566</v>
       </c>
       <c r="D25">
-        <v>0.01002517557234484</v>
+        <v>0.03601490061294044</v>
       </c>
       <c r="E25">
-        <v>0.05349718707040196</v>
+        <v>0.07384130201608841</v>
       </c>
       <c r="F25">
-        <v>3.418315264625363</v>
+        <v>2.318071231081248</v>
       </c>
       <c r="G25">
-        <v>0.0008471644793587188</v>
+        <v>0.04956515586379018</v>
       </c>
       <c r="H25">
-        <v>0.01677214959234541</v>
+        <v>0.008969392342164872</v>
       </c>
       <c r="I25">
-        <v>0.0237624637047853</v>
+        <v>0.01047528812391807</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.977808643000543</v>
+        <v>1.172951214090297</v>
       </c>
       <c r="L25">
-        <v>0.1413550752346495</v>
+        <v>0.453054129177346</v>
       </c>
       <c r="M25">
-        <v>1.163974203318304</v>
+        <v>0.4250687983407033</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1354049907922388</v>
       </c>
       <c r="O25">
-        <v>0.3368321069287106</v>
+        <v>1.227673244087896</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.3717898686292997</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
